--- a/bots/crawl_ch/output/toilet_coop_2022-08-25.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-25.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -844,36 +844,36 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3754631</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -882,12 +882,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.40/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -907,46 +907,46 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>3754631</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -955,12 +955,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.40/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1063,45 +1063,45 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6638996</t>
+          <t>6433417</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher</t>
+          <t>Plenty Fun Design extra Long</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>176BLT</t>
+          <t>144BLT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1115,50 +1115,50 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
+          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6433417</t>
+          <t>6638996</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long</t>
+          <t>Oecoplan Allzweck Papiertücher</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>144BLT</t>
+          <t>176BLT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
+          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-25 07:08:26</t>
+          <t>2022-08-25 20:58:11</t>
         </is>
       </c>
     </row>
